--- a/Mifos Automation Excels/Client/2450-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2450-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Newcreateloan1.xlsx
@@ -200,7 +200,7 @@
     <t>validaterepaymentschedule</t>
   </si>
   <si>
-    <t>2450-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST</t>
+    <t>2450-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-1st</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -332,7 +332,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -641,7 +640,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +709,7 @@
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>10000</v>
       </c>
     </row>
@@ -1621,50 +1620,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>42050</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
     </row>
